--- a/pred_ohlcv/54_21/2019-10-26 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 FX ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-113273.3752990783</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-114474.1304990783</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-101015.5098990783</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-96180.51519907833</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-94976.79499907834</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-97122.75879907834</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-95017.14829907834</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-94840.93789907834</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-94808.68349907834</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-102004.6334990783</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-101598.7649990783</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-100620.5545990783</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-103864.7936990783</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-103542.9711990784</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-100021.0928990784</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-81368.29779907835</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>21585.94740092164</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-51908.47409907835</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-57766.51289907836</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-57529.47149907835</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-81104.98289907836</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-75812.38649907836</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-88763.96849907836</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-89953.98269907836</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-100248.3166990784</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-102744.9679990784</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-186901.3057990784</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-186901.3057990784</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-185195.0618413861</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-185185.0618413861</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-185318.6982413861</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-196368.2552413861</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-181664.3665413861</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 FX ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>-94976.79499907834</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-93957.12269907833</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-93831.31659907833</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-97122.75879907834</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-95017.14829907834</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-94840.93789907834</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-94808.68349907834</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-101212.6334990783</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-102004.6334990783</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-101598.7649990783</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-100620.5545990783</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-103864.7936990783</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-103542.9711990784</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-100021.0928990784</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-100010.5290990784</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-81368.29779907835</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>21585.94740092164</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-51908.47409907835</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-57766.51289907836</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-57529.47149907835</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-81104.98289907836</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-75812.38649907836</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-88763.96849907836</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-89744.55279907836</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-89953.98269907836</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-186901.3057990784</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-186901.3057990784</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-181939.8788413861</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-185195.0618413861</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-185185.0618413861</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-185205.0618413861</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-188844.1155413861</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-188834.1155413861</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-196368.2552413861</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-181664.3665413861</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-181654.3665413861</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
